--- a/ResultadoEleicoesDistritos/VILA REAL_MURÇA.xlsx
+++ b/ResultadoEleicoesDistritos/VILA REAL_MURÇA.xlsx
@@ -597,64 +597,64 @@
         <v>1836</v>
       </c>
       <c r="H2" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I2" t="n">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="J2" t="n">
-        <v>777</v>
+        <v>717</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="M2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S2" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="T2" t="n">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="U2" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="V2" t="n">
-        <v>1188</v>
+        <v>1151</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1138</v>
+        <v>1214</v>
       </c>
       <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA2" t="n">
         <v>2</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
